--- a/Fichiers modifiables/ListeEnclos.xlsx
+++ b/Fichiers modifiables/ListeEnclos.xlsx
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,42 +1293,48 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1339,42 +1345,45 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1385,25 +1394,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1419,6 +1428,9 @@
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -1431,25 +1443,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1469,6 +1484,9 @@
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
@@ -1485,25 +1503,28 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1512,25 +1533,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1539,25 +1563,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
-        <v>3</v>
+      <c r="H12" s="10">
+        <v>1</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1566,16 +1593,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -1583,8 +1610,8 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
-        <v>3</v>
+      <c r="H13" s="10">
+        <v>1</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1593,24 +1620,27 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
       <c r="J14" s="1"/>
@@ -1620,25 +1650,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="1">
-        <v>3</v>
+      <c r="H15" s="10">
+        <v>1</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1647,25 +1677,28 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
-        <v>4</v>
+      <c r="H16" s="10">
+        <v>1</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1674,25 +1707,28 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1701,25 +1737,28 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1728,25 +1767,25 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1755,19 +1794,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1782,25 +1821,25 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1819,6 +1858,9 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" s="5">
         <v>528</v>
@@ -1837,25 +1879,28 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>694</v>
+        <v>614</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="5"/>
@@ -1865,25 +1910,28 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" s="5">
-        <v>483</v>
+        <v>246</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="5"/>
@@ -1893,25 +1941,28 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" s="5">
-        <v>614</v>
+        <v>468</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="5"/>
@@ -1921,25 +1972,25 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F26" s="5">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="5"/>
@@ -1949,25 +2000,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>246</v>
+        <v>694</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="5"/>
@@ -1977,19 +2031,22 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>680</v>
+        <v>501</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2004,25 +2061,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" s="5">
-        <v>468</v>
+        <v>680</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2031,48 +2091,51 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F30" s="6">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>704</v>
+        <v>508</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -2081,25 +2144,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>166</v>
+        <v>214</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" s="6">
-        <v>444</v>
+        <v>634</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -2108,25 +2174,25 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="F33" s="6">
-        <v>345</v>
+        <v>654</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -2135,25 +2201,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>169</v>
+        <v>238</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" s="6">
-        <v>426</v>
+        <v>688</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -2162,25 +2231,25 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F35" s="6">
-        <v>718</v>
+        <v>1008</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -2189,25 +2258,28 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" s="6">
-        <v>232</v>
+        <v>1077</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -2216,25 +2288,28 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>173</v>
+        <v>222</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>332</v>
+        <v>1140</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -2243,25 +2318,28 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" s="6">
-        <v>263</v>
+        <v>1144</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -2270,25 +2348,28 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>177</v>
+        <v>202</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>216</v>
+        <v>1171</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -2297,25 +2378,25 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F40" s="6">
-        <v>693</v>
+        <v>290</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -2324,25 +2405,28 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>181</v>
+        <v>203</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>766</v>
+        <v>330</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -2351,25 +2435,25 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="F42" s="6">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -2378,25 +2462,28 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>184</v>
+        <v>237</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -2405,25 +2492,28 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="F44" s="6">
-        <v>222</v>
+        <v>674</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -2432,25 +2522,28 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>187</v>
+        <v>215</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>413</v>
+        <v>858</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -2459,25 +2552,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="F46" s="6">
-        <v>433</v>
+        <v>975</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="7"/>
@@ -2487,25 +2583,28 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
+        <v>220</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>771</v>
+        <v>1104</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H47" s="6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -2515,25 +2614,28 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="F48" s="6">
-        <v>798</v>
+        <v>511</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -2543,25 +2645,25 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="F49" s="6">
-        <v>791</v>
+        <v>730</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="7"/>
@@ -2571,25 +2673,25 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F50" s="7">
-        <v>511</v>
+        <v>426</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="7"/>
@@ -2599,25 +2701,25 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F51" s="7">
-        <v>251</v>
+        <v>433</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -2626,25 +2728,25 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F52" s="7">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -2653,25 +2755,28 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="F53" s="7">
-        <v>1144</v>
+        <v>993</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -2680,25 +2785,28 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" s="7">
-        <v>508</v>
+        <v>1271</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -2707,25 +2815,25 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F55" s="7">
-        <v>1171</v>
+        <v>263</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -2734,25 +2842,25 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="F56" s="7">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -2761,25 +2869,25 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="F57" s="7">
-        <v>1008</v>
+        <v>351</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -2788,25 +2896,25 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F58" s="7">
-        <v>975</v>
+        <v>556</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -2815,25 +2923,28 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>237</v>
+        <v>192</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59" s="7">
-        <v>559</v>
+        <v>798</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -2842,25 +2953,25 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F60" s="7">
-        <v>674</v>
+        <v>216</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -2869,25 +2980,28 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="F61" s="7">
-        <v>654</v>
+        <v>222</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H61" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -2896,25 +3010,25 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="F62" s="7">
-        <v>688</v>
+        <v>232</v>
       </c>
       <c r="G62">
-        <v>3</v>
-      </c>
-      <c r="H62" s="7">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H62" s="10">
+        <v>21</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -2923,25 +3037,25 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F63" s="7">
-        <v>634</v>
+        <v>283</v>
       </c>
       <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63" s="7">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H63" s="10">
+        <v>21</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -2950,25 +3064,25 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="F64" s="7">
-        <v>858</v>
+        <v>332</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -2977,25 +3091,25 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="F65" s="7">
-        <v>1077</v>
+        <v>413</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3004,111 +3118,117 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="F66" s="7">
-        <v>354</v>
+        <v>704</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="F67" s="7">
-        <v>1104</v>
+        <v>718</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="F68" s="7">
-        <v>1140</v>
+        <v>766</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>224</v>
+        <v>193</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
       </c>
       <c r="F69" s="7">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70" s="7">
-        <v>1077</v>
+        <v>354</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -3119,19 +3239,22 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="F71" s="7">
-        <v>354</v>
+        <v>1077</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -3153,6 +3276,9 @@
       <c r="D72" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
       <c r="F72" s="7">
         <v>1104</v>
       </c>
@@ -3176,6 +3302,9 @@
       <c r="D73" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
       <c r="F73" s="7">
         <v>1140</v>
       </c>
@@ -3188,42 +3317,42 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F74" s="8">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G74">
         <v>6</v>
       </c>
       <c r="H74" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F75" s="8">
-        <v>395</v>
+        <v>238</v>
       </c>
       <c r="G75">
         <v>6</v>
@@ -3234,19 +3363,19 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F76" s="8">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="G76">
         <v>6</v>
@@ -3257,25 +3386,25 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F77" s="8">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="G77">
         <v>6</v>
       </c>
       <c r="H77" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -3307,19 +3436,19 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F79" s="8">
-        <v>531</v>
+        <v>206</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -3334,25 +3463,25 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F80" s="8">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="G80">
         <v>6</v>
       </c>
       <c r="H80" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -3361,25 +3490,25 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F81" s="8">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="G81">
         <v>6</v>
       </c>
       <c r="H81" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -3388,25 +3517,25 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F82" s="8">
-        <v>305</v>
+        <v>465</v>
       </c>
       <c r="G82">
         <v>6</v>
       </c>
       <c r="H82" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -3442,19 +3571,22 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>296</v>
+        <v>272</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" s="10">
-        <v>1153</v>
+        <v>259</v>
       </c>
       <c r="G84">
         <v>7</v>
@@ -3469,19 +3601,22 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
       </c>
       <c r="F85" s="10">
-        <v>835</v>
+        <v>274</v>
       </c>
       <c r="G85">
         <v>7</v>
@@ -3496,19 +3631,22 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>264</v>
+        <v>281</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
       </c>
       <c r="F86" s="10">
-        <v>864</v>
+        <v>353</v>
       </c>
       <c r="G86">
         <v>7</v>
@@ -3525,19 +3663,19 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F87" s="10">
-        <v>606</v>
+        <v>373</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -3554,19 +3692,22 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
       </c>
       <c r="F88" s="10">
-        <v>274</v>
+        <v>606</v>
       </c>
       <c r="G88">
         <v>7</v>
@@ -3581,19 +3722,19 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="F89" s="10">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="G89">
         <v>7</v>
@@ -3608,19 +3749,22 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90" s="10">
-        <v>1133</v>
+        <v>659</v>
       </c>
       <c r="G90">
         <v>7</v>
@@ -3635,19 +3779,22 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" s="10">
-        <v>259</v>
+        <v>830</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -3662,25 +3809,28 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92" s="10">
-        <v>1169</v>
+        <v>835</v>
       </c>
       <c r="G92">
         <v>7</v>
       </c>
       <c r="H92" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -3689,25 +3839,28 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" s="10">
-        <v>662</v>
+        <v>835</v>
       </c>
       <c r="G93">
         <v>7</v>
       </c>
       <c r="H93" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -3716,19 +3869,19 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F94" s="10">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="G94">
         <v>7</v>
@@ -3743,25 +3896,25 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F95" s="10">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="G95">
         <v>7</v>
       </c>
       <c r="H95" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -3770,19 +3923,22 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
       <c r="F96" s="10">
-        <v>353</v>
+        <v>1133</v>
       </c>
       <c r="G96">
         <v>7</v>
@@ -3797,19 +3953,19 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F97" s="10">
-        <v>373</v>
+        <v>1153</v>
       </c>
       <c r="G97">
         <v>7</v>
@@ -3824,25 +3980,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F98" s="10">
-        <v>835</v>
+        <v>274</v>
       </c>
       <c r="G98">
         <v>7</v>
       </c>
       <c r="H98" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3851,25 +4007,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F99" s="10">
-        <v>864</v>
+        <v>662</v>
       </c>
       <c r="G99">
         <v>7</v>
       </c>
       <c r="H99" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -3878,25 +4034,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F100" s="10">
-        <v>606</v>
+        <v>879</v>
       </c>
       <c r="G100">
         <v>7</v>
       </c>
       <c r="H100" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -3905,19 +4061,19 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F101" s="10">
-        <v>274</v>
+        <v>1169</v>
       </c>
       <c r="G101">
         <v>7</v>
@@ -3973,6 +4129,11 @@
       <c r="M106" s="10"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H101">
+    <sortCondition ref="G2:G101"/>
+    <sortCondition ref="H2:H101"/>
+    <sortCondition ref="F2:F101"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>